--- a/firebirds1920s1.xlsx
+++ b/firebirds1920s1.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\doorcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08497D27-F5B4-46A5-B403-BCB37E613323}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0809EF9-B4AF-43BF-A0CA-A99913EFCEF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14985" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="494">
   <si>
     <t>ID</t>
   </si>
@@ -1497,6 +1498,15 @@
   </si>
   <si>
     <t>Quant. Finance and Risk Mgmt</t>
+  </si>
+  <si>
+    <t>YIYI</t>
+  </si>
+  <si>
+    <t>yi yi</t>
+  </si>
+  <si>
+    <t>Linguistics and Sociology</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5684,10 +5694,16 @@
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
-      <c r="E121" s="13"/>
+      <c r="E121" s="13" t="s">
+        <v>491</v>
+      </c>
       <c r="F121" s="7"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="7"/>
+      <c r="G121" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
